--- a/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-09/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -16771,13 +16771,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>76030</v>
+        <v>76032</v>
       </c>
       <c r="D321" t="n">
         <v>15908</v>
       </c>
       <c r="E321" t="n">
-        <v>132447839</v>
+        <v>132462902</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
@@ -22228,13 +22228,13 @@
         </is>
       </c>
       <c r="C428" t="n">
-        <v>40406</v>
+        <v>40408</v>
       </c>
       <c r="D428" t="n">
         <v>6930</v>
       </c>
       <c r="E428" t="n">
-        <v>215219541</v>
+        <v>215280187</v>
       </c>
       <c r="F428" t="inlineStr">
         <is>
@@ -24013,13 +24013,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>35052</v>
+        <v>35054</v>
       </c>
       <c r="D463" t="n">
         <v>7039</v>
       </c>
       <c r="E463" t="n">
-        <v>160307087</v>
+        <v>160478383</v>
       </c>
       <c r="F463" t="inlineStr">
         <is>
@@ -24574,13 +24574,13 @@
         </is>
       </c>
       <c r="C474" t="n">
-        <v>74995</v>
+        <v>74996</v>
       </c>
       <c r="D474" t="n">
         <v>11550</v>
       </c>
       <c r="E474" t="n">
-        <v>435440166</v>
+        <v>435450166</v>
       </c>
       <c r="F474" t="inlineStr">
         <is>
@@ -25084,13 +25084,13 @@
         </is>
       </c>
       <c r="C484" t="n">
-        <v>292127</v>
+        <v>292128</v>
       </c>
       <c r="D484" t="n">
         <v>42567</v>
       </c>
       <c r="E484" t="n">
-        <v>1771208912</v>
+        <v>1771211195</v>
       </c>
       <c r="F484" t="inlineStr">
         <is>
@@ -25237,13 +25237,13 @@
         </is>
       </c>
       <c r="C487" t="n">
-        <v>230715</v>
+        <v>230719</v>
       </c>
       <c r="D487" t="n">
         <v>33849</v>
       </c>
       <c r="E487" t="n">
-        <v>1821795286</v>
+        <v>1821976079</v>
       </c>
       <c r="F487" t="inlineStr">
         <is>
@@ -26155,13 +26155,13 @@
         </is>
       </c>
       <c r="C505" t="n">
-        <v>184268</v>
+        <v>184269</v>
       </c>
       <c r="D505" t="n">
         <v>27738</v>
       </c>
       <c r="E505" t="n">
-        <v>332750448</v>
+        <v>332752278</v>
       </c>
       <c r="F505" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>71195</v>
+        <v>71196</v>
       </c>
       <c r="D511" t="n">
         <v>10924</v>
       </c>
       <c r="E511" t="n">
-        <v>287589147</v>
+        <v>287591813</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>3277</v>
+        <v>3280</v>
       </c>
       <c r="D513" t="n">
         <v>540</v>
       </c>
       <c r="E513" t="n">
-        <v>14364035</v>
+        <v>14394035</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -27226,13 +27226,13 @@
         </is>
       </c>
       <c r="C526" t="n">
-        <v>35988</v>
+        <v>35989</v>
       </c>
       <c r="D526" t="n">
         <v>7104</v>
       </c>
       <c r="E526" t="n">
-        <v>162590347</v>
+        <v>162620811</v>
       </c>
       <c r="F526" t="inlineStr">
         <is>
@@ -28195,13 +28195,13 @@
         </is>
       </c>
       <c r="C545" t="n">
-        <v>25083</v>
+        <v>25085</v>
       </c>
       <c r="D545" t="n">
         <v>6170</v>
       </c>
       <c r="E545" t="n">
-        <v>92541885</v>
+        <v>92550331</v>
       </c>
       <c r="F545" t="inlineStr">
         <is>
@@ -28807,13 +28807,13 @@
         </is>
       </c>
       <c r="C557" t="n">
-        <v>12408</v>
+        <v>12409</v>
       </c>
       <c r="D557" t="n">
         <v>2144</v>
       </c>
       <c r="E557" t="n">
-        <v>40519203</v>
+        <v>40553253</v>
       </c>
       <c r="F557" t="inlineStr">
         <is>
@@ -46504,13 +46504,13 @@
         </is>
       </c>
       <c r="C904" t="n">
-        <v>59759</v>
+        <v>59760</v>
       </c>
       <c r="D904" t="n">
         <v>8975</v>
       </c>
       <c r="E904" t="n">
-        <v>334677919</v>
+        <v>334732534</v>
       </c>
       <c r="F904" t="inlineStr">
         <is>
@@ -48748,13 +48748,13 @@
         </is>
       </c>
       <c r="C948" t="n">
-        <v>19065</v>
+        <v>19071</v>
       </c>
       <c r="D948" t="n">
         <v>3311</v>
       </c>
       <c r="E948" t="n">
-        <v>93803672</v>
+        <v>93863672</v>
       </c>
       <c r="F948" t="inlineStr">
         <is>
